--- a/data/trans_orig/P29_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P29_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>69565</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55242</v>
+        <v>54913</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87322</v>
+        <v>87238</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1263395204713086</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.100327649789891</v>
+        <v>0.099729501874018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1585884267649247</v>
+        <v>0.1584368908092327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -762,19 +762,19 @@
         <v>116404</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101900</v>
+        <v>100921</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135039</v>
+        <v>132737</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2383310818414591</v>
+        <v>0.238331081841459</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2086348133866273</v>
+        <v>0.2066306906566685</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2764862395227149</v>
+        <v>0.2717721581712811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>245</v>
@@ -783,19 +783,19 @@
         <v>185968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>163545</v>
+        <v>162959</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208408</v>
+        <v>211713</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1789827957699004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1574016925224577</v>
+        <v>0.1568378599096259</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.200579823504944</v>
+        <v>0.2037605335615643</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>46415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34915</v>
+        <v>34558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61181</v>
+        <v>61745</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0842967723587852</v>
+        <v>0.08429677235878519</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0634097921002913</v>
+        <v>0.06276285399916272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1111124807484666</v>
+        <v>0.1121382523352295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -833,19 +833,19 @@
         <v>54958</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43632</v>
+        <v>44026</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66781</v>
+        <v>68003</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1125238910854917</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08933374658007701</v>
+        <v>0.09014043182149604</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1367317300796617</v>
+        <v>0.1392326619337447</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -854,19 +854,19 @@
         <v>101373</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>84546</v>
+        <v>84042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120402</v>
+        <v>119285</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.09756534334606415</v>
+        <v>0.09756534334606413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08136997322678981</v>
+        <v>0.08088556992557408</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1158795504030923</v>
+        <v>0.1148042391700342</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>64155</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50263</v>
+        <v>50913</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>80204</v>
+        <v>80181</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1165146879952457</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09128432246034822</v>
+        <v>0.0924644154099418</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.145662240649903</v>
+        <v>0.1456208358878438</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>105</v>
@@ -904,19 +904,19 @@
         <v>79953</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65270</v>
+        <v>65182</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94608</v>
+        <v>96241</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.163700700633812</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1336382760841195</v>
+        <v>0.1334565225593829</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1937059211120638</v>
+        <v>0.1970497855155494</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>173</v>
@@ -925,19 +925,19 @@
         <v>144108</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>125499</v>
+        <v>123023</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>165937</v>
+        <v>165302</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1386951650167667</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1207844217586692</v>
+        <v>0.1184023327065304</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1597042308706499</v>
+        <v>0.1590932332446544</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>108835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90963</v>
+        <v>89095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133489</v>
+        <v>130918</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1976590824798936</v>
+        <v>0.1976590824798937</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1652019490097856</v>
+        <v>0.1618092403687469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2424340996315167</v>
+        <v>0.2377656646539865</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -975,19 +975,19 @@
         <v>102603</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>87618</v>
+        <v>87846</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118017</v>
+        <v>120174</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.210074402538318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1793945997337605</v>
+        <v>0.1798602064282913</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2416349443688337</v>
+        <v>0.2460510935159155</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>233</v>
@@ -996,19 +996,19 @@
         <v>211437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>186729</v>
+        <v>187047</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>240088</v>
+        <v>237464</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.203495085690846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1797144490898902</v>
+        <v>0.1800211095620788</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2310693764223213</v>
+        <v>0.2285444063298231</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>150060</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128283</v>
+        <v>127603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173802</v>
+        <v>171928</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2725299418484781</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2329801533187718</v>
+        <v>0.2317457738641732</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3156495364801579</v>
+        <v>0.3122453903608349</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>150</v>
@@ -1046,19 +1046,19 @@
         <v>107875</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>92700</v>
+        <v>91638</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>125236</v>
+        <v>122842</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2208699332926582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1897990766150528</v>
+        <v>0.1876242670996381</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2564150107093442</v>
+        <v>0.2515130506292995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>283</v>
@@ -1067,19 +1067,19 @@
         <v>257935</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>229198</v>
+        <v>231056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>288182</v>
+        <v>286468</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2482463974540655</v>
+        <v>0.2482463974540654</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2205884173031394</v>
+        <v>0.2223765872258813</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.277356824505484</v>
+        <v>0.2757071472713174</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>19587</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12406</v>
+        <v>12377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29122</v>
+        <v>30640</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03557246874508876</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02253104354947224</v>
+        <v>0.02247823484134406</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05289042367113486</v>
+        <v>0.0556461744568662</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -1117,19 +1117,19 @@
         <v>10032</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5921</v>
+        <v>5612</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16524</v>
+        <v>15997</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0205396065580066</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01212252211781116</v>
+        <v>0.01148932661810401</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0338320860636248</v>
+        <v>0.03275320508030612</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>35</v>
@@ -1138,19 +1138,19 @@
         <v>29619</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>21253</v>
+        <v>21214</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>41442</v>
+        <v>41958</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.02850605148151728</v>
+        <v>0.02850605148151727</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02045488578006438</v>
+        <v>0.02041703323076125</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03988535971554377</v>
+        <v>0.04038176285104789</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>5046</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2024</v>
+        <v>2153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11041</v>
+        <v>10904</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009163679998178607</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003675472368415256</v>
+        <v>0.003909687475343149</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02005252472455292</v>
+        <v>0.0198029431625081</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1188,19 +1188,19 @@
         <v>4000</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8431</v>
+        <v>8644</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.008190618071309327</v>
+        <v>0.008190618071309325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003152469699795514</v>
+        <v>0.003146937158568521</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01726172349996101</v>
+        <v>0.01769905614910789</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1209,19 +1209,19 @@
         <v>9046</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5029</v>
+        <v>4769</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15099</v>
+        <v>16039</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.008706277973668474</v>
+        <v>0.008706277973668472</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00484044340193762</v>
+        <v>0.004589924472723216</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01453172934223875</v>
+        <v>0.01543663798745247</v>
       </c>
     </row>
     <row r="11">
@@ -1238,19 +1238,19 @@
         <v>22345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14813</v>
+        <v>14386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31978</v>
+        <v>30928</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04058149550060867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02690188456467554</v>
+        <v>0.02612712572073297</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05807680010536785</v>
+        <v>0.05616960810127136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4411</v>
+        <v>4511</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002609587220852061</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.009031552369703261</v>
+        <v>0.009235669125163364</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -1280,19 +1280,19 @@
         <v>23619</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16312</v>
+        <v>16250</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33919</v>
+        <v>35013</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02273224331831972</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01569937551894029</v>
+        <v>0.01563945200974723</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03264485254465516</v>
+        <v>0.03369824750500072</v>
       </c>
     </row>
     <row r="12">
@@ -1309,19 +1309,19 @@
         <v>64611</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51348</v>
+        <v>52671</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>79543</v>
+        <v>80072</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1173423506024127</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09325556830553591</v>
+        <v>0.09565727421283747</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.144461608258786</v>
+        <v>0.1454220022988942</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -1330,19 +1330,19 @@
         <v>11312</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6924</v>
+        <v>6931</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17561</v>
+        <v>17876</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02316017875809304</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01417556665127839</v>
+        <v>0.01419138347968517</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03595625718625614</v>
+        <v>0.03660074703145505</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>96</v>
@@ -1351,19 +1351,19 @@
         <v>75923</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61823</v>
+        <v>62970</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92693</v>
+        <v>92654</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07307063994885186</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05950104796609404</v>
+        <v>0.06060422899587695</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08921138214867416</v>
+        <v>0.08917381875440113</v>
       </c>
     </row>
     <row r="13">
@@ -1455,19 +1455,19 @@
         <v>76692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61080</v>
+        <v>60413</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93619</v>
+        <v>94670</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1587120061937297</v>
+        <v>0.1587120061937298</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1264036380332515</v>
+        <v>0.1250245719161514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1937441023939001</v>
+        <v>0.1959179670841108</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>133</v>
@@ -1476,19 +1476,19 @@
         <v>89572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76473</v>
+        <v>75667</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>104331</v>
+        <v>106398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2124128471407283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1813491002904252</v>
+        <v>0.1794399263195723</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2474135832486035</v>
+        <v>0.2523158112791646</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>213</v>
@@ -1497,19 +1497,19 @@
         <v>166263</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145320</v>
+        <v>144313</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>188690</v>
+        <v>191093</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1837368408847625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1605923029899009</v>
+        <v>0.1594794023939123</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2085201667980974</v>
+        <v>0.2111764912999595</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>53231</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>41031</v>
+        <v>39929</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>70661</v>
+        <v>69124</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1101599903437656</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08491235388444014</v>
+        <v>0.08263333911746633</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1462316577737482</v>
+        <v>0.1430516881398113</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>76</v>
@@ -1547,19 +1547,19 @@
         <v>51989</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41075</v>
+        <v>41964</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>64550</v>
+        <v>65931</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1232875598351582</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09740539264332961</v>
+        <v>0.09951559709174275</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1530756425575595</v>
+        <v>0.1563507897728086</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>132</v>
@@ -1568,19 +1568,19 @@
         <v>105219</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>88980</v>
+        <v>90114</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>124234</v>
+        <v>123689</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1162774970833971</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09833097211302255</v>
+        <v>0.09958409579374428</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1372909167505716</v>
+        <v>0.1366881131598087</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>78054</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61136</v>
+        <v>61893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97974</v>
+        <v>97658</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.161531200673745</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1265193303158357</v>
+        <v>0.1280864729249143</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2027567235941857</v>
+        <v>0.2021026138650415</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -1618,19 +1618,19 @@
         <v>70533</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56749</v>
+        <v>58432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>83861</v>
+        <v>84221</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1672630779700437</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.134576231282254</v>
+        <v>0.1385673370062253</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1988690832001171</v>
+        <v>0.199724170152181</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>161</v>
@@ -1639,19 +1639,19 @@
         <v>148586</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128159</v>
+        <v>126806</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174896</v>
+        <v>171541</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1642022814106505</v>
+        <v>0.1642022814106506</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1416281065060848</v>
+        <v>0.1401324262051339</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1932767028759375</v>
+        <v>0.1895691792195434</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>99542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81266</v>
+        <v>80977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119735</v>
+        <v>119251</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2060016934542224</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1681791079120457</v>
+        <v>0.1675810690646137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2477896410224745</v>
+        <v>0.2467880568198949</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>131</v>
@@ -1689,19 +1689,19 @@
         <v>96856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>82406</v>
+        <v>82276</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113522</v>
+        <v>113307</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2296867793490793</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1954193236424988</v>
+        <v>0.1951107858511696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2692081587729492</v>
+        <v>0.2686995193288737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>223</v>
@@ -1710,19 +1710,19 @@
         <v>196398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>172366</v>
+        <v>173128</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>220501</v>
+        <v>219230</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2170390505739498</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1904811758538107</v>
+        <v>0.1913233230764932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2436741987030428</v>
+        <v>0.2422704613688992</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>99703</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>81946</v>
+        <v>83536</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>119319</v>
+        <v>121058</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2063337530640234</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1695852432074473</v>
+        <v>0.1728771387211638</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2469292147312974</v>
+        <v>0.2505268110324418</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>101</v>
@@ -1760,19 +1760,19 @@
         <v>73486</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60774</v>
+        <v>61280</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>87459</v>
+        <v>88678</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1742675290093655</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1441206981617572</v>
+        <v>0.1453208045193223</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2074019743405178</v>
+        <v>0.2102933114450931</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>195</v>
@@ -1781,19 +1781,19 @@
         <v>173189</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>150968</v>
+        <v>151997</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>196065</v>
+        <v>197205</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1913907476662973</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1668337785568157</v>
+        <v>0.1679716307299405</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.216670410229319</v>
+        <v>0.2179306215644127</v>
       </c>
     </row>
     <row r="19">
@@ -1810,19 +1810,19 @@
         <v>11062</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5706</v>
+        <v>5565</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20319</v>
+        <v>20780</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02289286678856335</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01180896819357974</v>
+        <v>0.01151697510545608</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04205044940346334</v>
+        <v>0.04300358920338793</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1831,19 +1831,19 @@
         <v>10984</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6243</v>
+        <v>6153</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17821</v>
+        <v>18690</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02604743200897482</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01480388994899068</v>
+        <v>0.0145922540564837</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0422622889489085</v>
+        <v>0.0443213654758126</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -1852,19 +1852,19 @@
         <v>22046</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14435</v>
+        <v>14372</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33282</v>
+        <v>31653</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02436290844472274</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01595202806285937</v>
+        <v>0.01588234780085535</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03677931769889013</v>
+        <v>0.03497938953324205</v>
       </c>
     </row>
     <row r="20">
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4976</v>
+        <v>4493</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001885201602119167</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01029844338110039</v>
+        <v>0.009298465588542434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1902,19 +1902,19 @@
         <v>4777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2255</v>
+        <v>2393</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9597</v>
+        <v>8919</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01132906311540575</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005347961700146267</v>
+        <v>0.005675384635759187</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02275860256671379</v>
+        <v>0.02115077438722811</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1923,19 +1923,19 @@
         <v>5688</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2544</v>
+        <v>2161</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10409</v>
+        <v>10424</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006286083767973061</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002811493048919409</v>
+        <v>0.002387641774556992</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0115027322957848</v>
+        <v>0.01152004228176908</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>11531</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6350</v>
+        <v>5982</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18714</v>
+        <v>19414</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02386229540107269</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01314147230588028</v>
+        <v>0.01238051143194906</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03872933491400546</v>
+        <v>0.04017607567913263</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1973,19 +1973,19 @@
         <v>7628</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3825</v>
+        <v>4102</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13143</v>
+        <v>13313</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01808831349167549</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009070321453393843</v>
+        <v>0.009728157549914481</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03116856807308706</v>
+        <v>0.03157156658611966</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>25</v>
@@ -1994,19 +1994,19 @@
         <v>19158</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12999</v>
+        <v>12396</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>28060</v>
+        <v>28782</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02117159372408612</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01436463772041673</v>
+        <v>0.01369837266500118</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03100937972493643</v>
+        <v>0.03180732090327337</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>52487</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39859</v>
+        <v>40737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>66176</v>
+        <v>66038</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1086209924787587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08248849724609085</v>
+        <v>0.08430415076068579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1369494331041379</v>
+        <v>0.1366648283583197</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2044,19 +2044,19 @@
         <v>15863</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10485</v>
+        <v>10289</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23582</v>
+        <v>24334</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03761739807956899</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02486490772167311</v>
+        <v>0.02439934189341761</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05592232297324376</v>
+        <v>0.05770600431719381</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -2065,19 +2065,19 @@
         <v>68350</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54898</v>
+        <v>54244</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>83289</v>
+        <v>82996</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07553299644416085</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06066803865809273</v>
+        <v>0.05994438238165413</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0920425903563559</v>
+        <v>0.09171848134806208</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>89179</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>72639</v>
+        <v>72522</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108476</v>
+        <v>107085</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1890929808890711</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.154023831555304</v>
+        <v>0.1537747914303434</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2300102502297524</v>
+        <v>0.2270608725443826</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>98</v>
@@ -2190,19 +2190,19 @@
         <v>60666</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50442</v>
+        <v>49412</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72041</v>
+        <v>71702</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3253468062315075</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.270516981533485</v>
+        <v>0.2649911618383773</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3863491131436911</v>
+        <v>0.3845307987005068</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>191</v>
@@ -2211,19 +2211,19 @@
         <v>149845</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>132184</v>
+        <v>131196</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>173472</v>
+        <v>173146</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2277006613522925</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.200863077553363</v>
+        <v>0.1993627791905218</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2636039492145141</v>
+        <v>0.2631081698608363</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>50195</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>39219</v>
+        <v>36888</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64518</v>
+        <v>63508</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.106432136247342</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08316021109604621</v>
+        <v>0.07821627781040567</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1368039891070141</v>
+        <v>0.1346606137474123</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -2261,19 +2261,19 @@
         <v>25402</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18353</v>
+        <v>18744</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33661</v>
+        <v>33679</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1362271350311209</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09842462980463421</v>
+        <v>0.1005204218286258</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1805208537378847</v>
+        <v>0.1806186499135598</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>102</v>
@@ -2282,19 +2282,19 @@
         <v>75597</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61307</v>
+        <v>62046</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>92567</v>
+        <v>91908</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1148745839331607</v>
+        <v>0.1148745839331608</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09316005501493567</v>
+        <v>0.09428386066391911</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1406624089216854</v>
+        <v>0.1396615844632852</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>58228</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45093</v>
+        <v>45586</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>74528</v>
+        <v>76163</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1234658307757201</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09561545881659909</v>
+        <v>0.09665985796386889</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1580277988056985</v>
+        <v>0.1614959722761681</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -2332,19 +2332,19 @@
         <v>31279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>23033</v>
+        <v>23824</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40991</v>
+        <v>41003</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1677463587896083</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1235233055722546</v>
+        <v>0.1277677543106741</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2198284092886649</v>
+        <v>0.2198954478532048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>103</v>
@@ -2353,19 +2353,19 @@
         <v>89507</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>72524</v>
+        <v>71859</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>109163</v>
+        <v>107433</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1360127700782049</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.110206144830293</v>
+        <v>0.1091947439625584</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1658815785669505</v>
+        <v>0.163252181291181</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>69368</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>54531</v>
+        <v>54728</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>87345</v>
+        <v>86814</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1470874749800737</v>
+        <v>0.1470874749800736</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1156278516420537</v>
+        <v>0.1160439354730763</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1852049616462713</v>
+        <v>0.1840787977469784</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>52</v>
@@ -2403,19 +2403,19 @@
         <v>34867</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>26697</v>
+        <v>26469</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>44040</v>
+        <v>44101</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.186987697382237</v>
+        <v>0.1869876973822371</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1431748192691309</v>
+        <v>0.1419514003982372</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2361832045679657</v>
+        <v>0.2365076284873046</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>120</v>
@@ -2424,19 +2424,19 @@
         <v>104235</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>89493</v>
+        <v>88293</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>121819</v>
+        <v>124178</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.1583932495742377</v>
+        <v>0.1583932495742378</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.135991827396408</v>
+        <v>0.1341670966630635</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1851125764749085</v>
+        <v>0.1886982830217881</v>
       </c>
     </row>
     <row r="28">
@@ -2453,19 +2453,19 @@
         <v>86572</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>69886</v>
+        <v>68416</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>106129</v>
+        <v>104345</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1835660600671397</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1481850112132014</v>
+        <v>0.145067591536773</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2250352194581955</v>
+        <v>0.2212526799458727</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -2474,19 +2474,19 @@
         <v>21611</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14803</v>
+        <v>15140</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>30802</v>
+        <v>29782</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1158956148193149</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07938413794856271</v>
+        <v>0.08119370602296151</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1651849732634418</v>
+        <v>0.1597148786818784</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>109</v>
@@ -2495,19 +2495,19 @@
         <v>108183</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>90288</v>
+        <v>88717</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>129725</v>
+        <v>129360</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1643915604127932</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1371991473289388</v>
+        <v>0.1348118920159654</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1971270416221158</v>
+        <v>0.1965727039845896</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>17407</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10534</v>
+        <v>10415</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28443</v>
+        <v>28529</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03690997742275971</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02233618299353867</v>
+        <v>0.02208359599143653</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06030996759618613</v>
+        <v>0.06049260787848451</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2545,19 +2545,19 @@
         <v>1904</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5186</v>
+        <v>5373</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01021106568334092</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002936788996678716</v>
+        <v>0.002941729269380512</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02780989963142724</v>
+        <v>0.02881361453459231</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -2566,19 +2566,19 @@
         <v>19311</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11488</v>
+        <v>11160</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>30673</v>
+        <v>30608</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02934480961509896</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01745651873003171</v>
+        <v>0.01695797946329807</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04661003780653544</v>
+        <v>0.0465108834402144</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>11344</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5827</v>
+        <v>6035</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22662</v>
+        <v>21880</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0240543183881612</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01235528796072875</v>
+        <v>0.01279588182024824</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04805142302583432</v>
+        <v>0.04639488878773023</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002465581546525197</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01235284597062026</v>
+        <v>0.01237141593863675</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>12</v>
@@ -2637,19 +2637,19 @@
         <v>11804</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6417</v>
+        <v>5958</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21846</v>
+        <v>22022</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01793712460302007</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009751527549353222</v>
+        <v>0.009053150677061599</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03319616791511151</v>
+        <v>0.03346466827092601</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>10805</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5773</v>
+        <v>5291</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19634</v>
+        <v>18383</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02291092283219087</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01224172845988845</v>
+        <v>0.01122001884595061</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04163136114349255</v>
+        <v>0.03897939092284752</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2687,19 +2687,19 @@
         <v>1681</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4832</v>
+        <v>5180</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.009012750461833165</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0</v>
+        <v>0.002235573184826585</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02591161962183715</v>
+        <v>0.02778191695621779</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -2708,19 +2708,19 @@
         <v>12486</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7212</v>
+        <v>7564</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>20626</v>
+        <v>21528</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01897285946737153</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0109588440559713</v>
+        <v>0.01149465900148018</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03134348559114437</v>
+        <v>0.03271310373113116</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>78514</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>63650</v>
+        <v>62926</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>95224</v>
+        <v>93419</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1664802983975417</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1349636244083483</v>
+        <v>0.1334279215292403</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2019109996566517</v>
+        <v>0.1980842727647789</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2758,19 +2758,19 @@
         <v>8597</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4827</v>
+        <v>4655</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14029</v>
+        <v>14446</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0461069900545121</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02588435772197252</v>
+        <v>0.02496510770386744</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07523332365660314</v>
+        <v>0.07747475513715184</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -2779,19 +2779,19 @@
         <v>87111</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>70616</v>
+        <v>71545</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>103436</v>
+        <v>104239</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1323723809638204</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1073067773208</v>
+        <v>0.108717650161794</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1571786539956766</v>
+        <v>0.1583995180551483</v>
       </c>
     </row>
     <row r="33">
@@ -2883,19 +2883,19 @@
         <v>183342</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>158523</v>
+        <v>160579</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>211189</v>
+        <v>208478</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1626374023720653</v>
+        <v>0.1626374023720652</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1406216486257131</v>
+        <v>0.1424456830704495</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.187340107717505</v>
+        <v>0.1849350480650703</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>418</v>
@@ -2904,19 +2904,19 @@
         <v>264842</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>244217</v>
+        <v>239713</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>291012</v>
+        <v>286320</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3081248943543385</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2841286519159389</v>
+        <v>0.2788887401958969</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3385715565642413</v>
+        <v>0.3331121033539468</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>613</v>
@@ -2925,19 +2925,19 @@
         <v>448184</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>414871</v>
+        <v>413265</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>485983</v>
+        <v>481796</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2255771503844702</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2088104130133842</v>
+        <v>0.2080020438459416</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2446019649442653</v>
+        <v>0.2424945277641209</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>150892</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>131352</v>
+        <v>129937</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>176697</v>
+        <v>176108</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1338524756611001</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1165188485302062</v>
+        <v>0.1152638503543859</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1567428674414284</v>
+        <v>0.1562210431963989</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>199</v>
@@ -2975,19 +2975,19 @@
         <v>129735</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>110966</v>
+        <v>113586</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>147559</v>
+        <v>149163</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1509371920571339</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1291008590204062</v>
+        <v>0.1321492595385915</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1716744802133275</v>
+        <v>0.1735404405455429</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>368</v>
@@ -2996,19 +2996,19 @@
         <v>280627</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>252487</v>
+        <v>254667</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>308675</v>
+        <v>312380</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1412435422756843</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1270799952657363</v>
+        <v>0.1281774232891106</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1553602740592484</v>
+        <v>0.1572252873380489</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>147111</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>124899</v>
+        <v>122149</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>173695</v>
+        <v>176588</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1304979293053478</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1107942054721165</v>
+        <v>0.1083549126318959</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1540799438858949</v>
+        <v>0.1566468047566631</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>194</v>
@@ -3046,19 +3046,19 @@
         <v>144331</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>125256</v>
+        <v>126155</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>162350</v>
+        <v>162922</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1679191718264125</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.145726254402623</v>
+        <v>0.1467719082065032</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1888819355378587</v>
+        <v>0.1895478512304307</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>332</v>
@@ -3067,19 +3067,19 @@
         <v>291442</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>260305</v>
+        <v>261604</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>322755</v>
+        <v>324440</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1466868369736021</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1310149703985184</v>
+        <v>0.1316690543889915</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1624470297789352</v>
+        <v>0.1632948518413263</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>192332</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>162786</v>
+        <v>166121</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>225678</v>
+        <v>225443</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1706122073393201</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1444033819990757</v>
+        <v>0.1473611985166818</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2001931371580739</v>
+        <v>0.199984378985958</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>218</v>
@@ -3117,19 +3117,19 @@
         <v>173818</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>154467</v>
+        <v>152272</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>196695</v>
+        <v>195305</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2022242806480129</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1797110897752168</v>
+        <v>0.1771579496017536</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2288408657924218</v>
+        <v>0.2272236334054553</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>373</v>
@@ -3138,19 +3138,19 @@
         <v>366149</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>329692</v>
+        <v>328889</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>405023</v>
+        <v>403626</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1842879941790659</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1659385845568039</v>
+        <v>0.1655343184424098</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2038536488061676</v>
+        <v>0.2031502780883785</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>181641</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>155325</v>
+        <v>155092</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>210623</v>
+        <v>212587</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1611286095589612</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1377849206717573</v>
+        <v>0.1375775539983369</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1868381828760236</v>
+        <v>0.1885802092914531</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>137</v>
@@ -3188,19 +3188,19 @@
         <v>105391</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>90150</v>
+        <v>87730</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>125733</v>
+        <v>123304</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1226153839573149</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1048827755723287</v>
+        <v>0.1020678640878828</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1462813768997211</v>
+        <v>0.1434547561733324</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>291</v>
@@ -3209,19 +3209,19 @@
         <v>287032</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>251928</v>
+        <v>254576</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>319324</v>
+        <v>320878</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1444672960571251</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1267986123929025</v>
+        <v>0.1281316113514482</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1607198543028536</v>
+        <v>0.1615024380948786</v>
       </c>
     </row>
     <row r="39">
@@ -3238,19 +3238,19 @@
         <v>45546</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>33309</v>
+        <v>34610</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>58909</v>
+        <v>60982</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04040241660179501</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02954751474413113</v>
+        <v>0.03070192749459431</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05225617718523359</v>
+        <v>0.0540952861744196</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>20</v>
@@ -3259,19 +3259,19 @@
         <v>15446</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>9273</v>
+        <v>9473</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>24857</v>
+        <v>25569</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01797008158115913</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01078899749338577</v>
+        <v>0.01102147611891724</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02891938308518366</v>
+        <v>0.02974805949028932</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>67</v>
@@ -3280,19 +3280,19 @@
         <v>60992</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>48338</v>
+        <v>47315</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>79192</v>
+        <v>78666</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03069790184048</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02432914286038659</v>
+        <v>0.02381412935771775</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03985837200275837</v>
+        <v>0.03959386040151184</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>15390</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>8941</v>
+        <v>9120</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>26769</v>
+        <v>27371</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01365185891351277</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.007931668343322698</v>
+        <v>0.00808975249063998</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02374570926794021</v>
+        <v>0.02427998603470196</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>8</v>
@@ -3330,19 +3330,19 @@
         <v>4362</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1898</v>
+        <v>1995</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8176</v>
+        <v>8450</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.00507524516878679</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002208670868141238</v>
+        <v>0.002320714907419434</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009512589295611572</v>
+        <v>0.009830868919379825</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>23</v>
@@ -3351,19 +3351,19 @@
         <v>19752</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>12025</v>
+        <v>12978</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>30582</v>
+        <v>31444</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.009941506219010658</v>
+        <v>0.009941506219010656</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.006052517358379891</v>
+        <v>0.006531920559831541</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01539230433798052</v>
+        <v>0.01582642126876356</v>
       </c>
     </row>
     <row r="41">
@@ -3380,19 +3380,19 @@
         <v>27988</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>19931</v>
+        <v>19932</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>41965</v>
+        <v>39571</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02482760108034741</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01768049181671299</v>
+        <v>0.01768118260698461</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03722622343101156</v>
+        <v>0.03510268415751639</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3401,19 +3401,19 @@
         <v>3344</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1195</v>
+        <v>1209</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7613</v>
+        <v>8199</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003890853700907972</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001389914490316952</v>
+        <v>0.001406372546969061</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008857684014542065</v>
+        <v>0.009538931877273824</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>37</v>
@@ -3422,19 +3422,19 @@
         <v>31333</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>21286</v>
+        <v>21963</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>43484</v>
+        <v>43063</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01577009664263356</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01071365156443346</v>
+        <v>0.01105439489761497</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0218861135279298</v>
+        <v>0.02167396525784545</v>
       </c>
     </row>
     <row r="42">
@@ -3451,19 +3451,19 @@
         <v>183062</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>160417</v>
+        <v>159484</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>209312</v>
+        <v>207937</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1623894991675504</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1423011650578587</v>
+        <v>0.1414736820345873</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1856752920619453</v>
+        <v>0.184455190767337</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>29</v>
@@ -3472,19 +3472,19 @@
         <v>18259</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>12818</v>
+        <v>12197</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>26060</v>
+        <v>26252</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02124289670593341</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01491295652861754</v>
+        <v>0.01419074503388172</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03031838299102194</v>
+        <v>0.03054207786178012</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>238</v>
@@ -3493,19 +3493,19 @@
         <v>201321</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>179023</v>
+        <v>178003</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>228382</v>
+        <v>228846</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1013276754279282</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0901046038433244</v>
+        <v>0.08959146862432363</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1149476806543532</v>
+        <v>0.1151811924228047</v>
       </c>
     </row>
     <row r="43">
@@ -3597,19 +3597,19 @@
         <v>116176</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>96112</v>
+        <v>96803</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>141278</v>
+        <v>136555</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2052123537192666</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1697711264466727</v>
+        <v>0.170990730518427</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2495518671353673</v>
+        <v>0.2412083800401393</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>471</v>
@@ -3618,19 +3618,19 @@
         <v>276382</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>257524</v>
+        <v>255873</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>301454</v>
+        <v>299370</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3335242514809704</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3107671185324348</v>
+        <v>0.3087748376029234</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3637794862441879</v>
+        <v>0.3612641805407531</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>581</v>
@@ -3639,19 +3639,19 @@
         <v>392559</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>359878</v>
+        <v>362765</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>424484</v>
+        <v>422115</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2814443803105814</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2580137852509179</v>
+        <v>0.260084147406526</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3043331893852896</v>
+        <v>0.3026345475120471</v>
       </c>
     </row>
     <row r="45">
@@ -3668,19 +3668,19 @@
         <v>80040</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>64315</v>
+        <v>64590</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>98703</v>
+        <v>97374</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1413807581495696</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1136044444384283</v>
+        <v>0.1140903929403864</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1743468254383506</v>
+        <v>0.1720002493370925</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>251</v>
@@ -3689,19 +3689,19 @@
         <v>155249</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>135773</v>
+        <v>138501</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>173480</v>
+        <v>175445</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1873471322793236</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1638438428456129</v>
+        <v>0.1671355022666348</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2093466440061292</v>
+        <v>0.2117181585489447</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>342</v>
@@ -3710,19 +3710,19 @@
         <v>235289</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>211617</v>
+        <v>212656</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>261269</v>
+        <v>263925</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1686900717525329</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1517184991546889</v>
+        <v>0.1524636138126567</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1873164558420273</v>
+        <v>0.1892204450437101</v>
       </c>
     </row>
     <row r="46">
@@ -3739,19 +3739,19 @@
         <v>73218</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>57105</v>
+        <v>56361</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>91015</v>
+        <v>90585</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1293313595874079</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1008695225814021</v>
+        <v>0.09955475985775453</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1607679836616136</v>
+        <v>0.1600080178587056</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>239</v>
@@ -3760,19 +3760,19 @@
         <v>164237</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>145854</v>
+        <v>146082</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>184240</v>
+        <v>184729</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1981925029869373</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1760095362484002</v>
+        <v>0.1762844383203427</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2223318347032759</v>
+        <v>0.2229220878249359</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>309</v>
@@ -3781,19 +3781,19 @@
         <v>237455</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>211430</v>
+        <v>211347</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>265224</v>
+        <v>264263</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1702427996511369</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.151584262182223</v>
+        <v>0.1515252251600283</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1901521342739328</v>
+        <v>0.1894629423841234</v>
       </c>
     </row>
     <row r="47">
@@ -3810,19 +3810,19 @@
         <v>73210</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>56615</v>
+        <v>56496</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>96799</v>
+        <v>93364</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.12931680742937</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1000040797090382</v>
+        <v>0.09979359425241778</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1709848260204971</v>
+        <v>0.1649165756042774</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>185</v>
@@ -3831,19 +3831,19 @@
         <v>134400</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>115747</v>
+        <v>115983</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>152821</v>
+        <v>153587</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1621872451894605</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1396775284978519</v>
+        <v>0.1399620783853839</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1844168915364657</v>
+        <v>0.1853413392857609</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>249</v>
@@ -3852,19 +3852,19 @@
         <v>207610</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>179384</v>
+        <v>183886</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>233833</v>
+        <v>233897</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1488456284436848</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1286094746973773</v>
+        <v>0.1318369131399938</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.167646098079162</v>
+        <v>0.1676923186414264</v>
       </c>
     </row>
     <row r="48">
@@ -3881,19 +3881,19 @@
         <v>90433</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>72151</v>
+        <v>70620</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>113374</v>
+        <v>113272</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.1597400095858345</v>
+        <v>0.1597400095858346</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1274456018613339</v>
+        <v>0.1247415606806689</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2002627078078209</v>
+        <v>0.2000821831350708</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>75</v>
@@ -3902,19 +3902,19 @@
         <v>54389</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>43216</v>
+        <v>44538</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>67864</v>
+        <v>69203</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.06563396489683972</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.05215134504758901</v>
+        <v>0.05374635460073721</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.08189537179015915</v>
+        <v>0.08351062479992045</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>148</v>
@@ -3923,19 +3923,19 @@
         <v>144822</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>122356</v>
+        <v>120625</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>172169</v>
+        <v>169025</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1038301943132242</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.08772302073860813</v>
+        <v>0.08648224521351353</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1234363698296203</v>
+        <v>0.1211824094653446</v>
       </c>
     </row>
     <row r="49">
@@ -3952,19 +3952,19 @@
         <v>22099</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>12939</v>
+        <v>13761</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>36943</v>
+        <v>35822</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.03903474334170165</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02285478230856742</v>
+        <v>0.02430707681629937</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.06525618133506214</v>
+        <v>0.06327586805333396</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>18</v>
@@ -3973,19 +3973,19 @@
         <v>11817</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>7290</v>
+        <v>6837</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>18883</v>
+        <v>18145</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01426075404488733</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.008796639031515657</v>
+        <v>0.008250435268465814</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02278723525150192</v>
+        <v>0.02189588560756486</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>37</v>
@@ -3994,19 +3994,19 @@
         <v>33916</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>23193</v>
+        <v>24359</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>49397</v>
+        <v>48414</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02431614402400559</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01662818807263623</v>
+        <v>0.01746393263329378</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03541515212000782</v>
+        <v>0.03471028295007416</v>
       </c>
     </row>
     <row r="50">
@@ -4023,19 +4023,19 @@
         <v>3438</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>8733</v>
+        <v>7711</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.006072037468652908</v>
+        <v>0.006072037468652909</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.001540106648114507</v>
+        <v>0.00151283091164726</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01542512749933814</v>
+        <v>0.01362085830751876</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>5</v>
@@ -4044,19 +4044,19 @@
         <v>3317</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1146</v>
+        <v>1270</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>7191</v>
+        <v>7458</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.004003023968754102</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.001383148235398273</v>
+        <v>0.001532170109932452</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.008677189808127697</v>
+        <v>0.009000150456231903</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>9</v>
@@ -4065,19 +4065,19 @@
         <v>6755</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>3080</v>
+        <v>3243</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>12334</v>
+        <v>11912</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.004842805457487454</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.002207968317423818</v>
+        <v>0.002325018204524702</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.008842643985246718</v>
+        <v>0.00854061626879408</v>
       </c>
     </row>
     <row r="51">
@@ -4094,19 +4094,19 @@
         <v>6728</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>2919</v>
+        <v>3004</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>12988</v>
+        <v>13004</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.01188480499250947</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.005155522018422963</v>
+        <v>0.005306799525114673</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.02294096355506586</v>
+        <v>0.02297059166251918</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>7</v>
@@ -4115,19 +4115,19 @@
         <v>4325</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>1818</v>
+        <v>1795</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>9716</v>
+        <v>9575</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.005218703832849737</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.002194079933896389</v>
+        <v>0.00216607371928642</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.01172531059848902</v>
+        <v>0.01155415505047583</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>15</v>
@@ -4136,19 +4136,19 @@
         <v>11053</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>6043</v>
+        <v>5975</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>18089</v>
+        <v>18260</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.007924374122666587</v>
+        <v>0.007924374122666585</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.004332558959194232</v>
+        <v>0.004284076789970514</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.01296906715529285</v>
+        <v>0.01309157680228843</v>
       </c>
     </row>
     <row r="52">
@@ -4165,19 +4165,19 @@
         <v>100786</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>80486</v>
+        <v>83042</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>118508</v>
+        <v>120134</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1780271257256874</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1421698315186254</v>
+        <v>0.1466835257205371</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2093301461457701</v>
+        <v>0.2122037506253145</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>36</v>
@@ -4186,19 +4186,19 @@
         <v>24556</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>17125</v>
+        <v>17498</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>33281</v>
+        <v>34033</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.02963242131997746</v>
+        <v>0.02963242131997747</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.02066530631387981</v>
+        <v>0.02111628762967554</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.04016176085601438</v>
+        <v>0.04106987134113337</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>142</v>
@@ -4207,19 +4207,19 @@
         <v>125342</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>105023</v>
+        <v>104376</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>150946</v>
+        <v>147805</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.08986360192468007</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07529584548652148</v>
+        <v>0.07483197171937082</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1082201773262823</v>
+        <v>0.1059683377570637</v>
       </c>
     </row>
     <row r="53">
@@ -4311,19 +4311,19 @@
         <v>57757</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>38377</v>
+        <v>40028</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>84144</v>
+        <v>82698</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.243468115035728</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1617728421769068</v>
+        <v>0.1687320854928707</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3546953886296776</v>
+        <v>0.3486030238147553</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>488</v>
@@ -4332,19 +4332,19 @@
         <v>334584</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>305542</v>
+        <v>308327</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>361844</v>
+        <v>362122</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.39724752292283</v>
+        <v>0.3972475229228299</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3627660633481351</v>
+        <v>0.3660727791469429</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.429613347185676</v>
+        <v>0.42994318399225</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>516</v>
@@ -4353,19 +4353,19 @@
         <v>392341</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>356257</v>
+        <v>355573</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>427510</v>
+        <v>426896</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3634528644079809</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3300263252942047</v>
+        <v>0.329392494493491</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3960327145065939</v>
+        <v>0.3954635832606265</v>
       </c>
     </row>
     <row r="55">
@@ -4382,19 +4382,19 @@
         <v>34001</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>20479</v>
+        <v>18932</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>52248</v>
+        <v>53397</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1433275309578996</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.08632759827168471</v>
+        <v>0.07980429552025251</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2202432518609337</v>
+        <v>0.2250854652073452</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>190</v>
@@ -4403,19 +4403,19 @@
         <v>127338</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>109407</v>
+        <v>108230</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>147904</v>
+        <v>147897</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1511864759357666</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1298974114348114</v>
+        <v>0.1284999460690353</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1756042575013482</v>
+        <v>0.1755969341952401</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>208</v>
@@ -4424,19 +4424,19 @@
         <v>161339</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>137923</v>
+        <v>138055</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>189911</v>
+        <v>189025</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1494593892896209</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1277679534109513</v>
+        <v>0.1278904413903947</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1759279479589136</v>
+        <v>0.1751075265082412</v>
       </c>
     </row>
     <row r="56">
@@ -4453,19 +4453,19 @@
         <v>42651</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>26071</v>
+        <v>27809</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>62878</v>
+        <v>65759</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1797896150003109</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1098987415414856</v>
+        <v>0.1172248454434299</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2650531986748221</v>
+        <v>0.2771963284618514</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>244</v>
@@ -4474,19 +4474,19 @@
         <v>176330</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>156051</v>
+        <v>153990</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>197677</v>
+        <v>199859</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.209354101483656</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1852774613351976</v>
+        <v>0.1828310942379964</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2347001793411783</v>
+        <v>0.2372904091671613</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>264</v>
@@ -4495,19 +4495,19 @@
         <v>218980</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>191463</v>
+        <v>192009</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>249668</v>
+        <v>246874</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.202856991509055</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1773656817585035</v>
+        <v>0.1778712908631216</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2312854153077699</v>
+        <v>0.2286965348739285</v>
       </c>
     </row>
     <row r="57">
@@ -4524,19 +4524,19 @@
         <v>57528</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>38773</v>
+        <v>37547</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>82222</v>
+        <v>81171</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.2425022705787124</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1634435952509665</v>
+        <v>0.1582722704193905</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.3465954832506125</v>
+        <v>0.3421661413906276</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>130</v>
@@ -4545,19 +4545,19 @@
         <v>118502</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>97791</v>
+        <v>97533</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>143175</v>
+        <v>142969</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.1406957509174236</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.1161064352123332</v>
+        <v>0.1158004060825491</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.1699906151125012</v>
+        <v>0.1697455290052534</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>153</v>
@@ -4566,19 +4566,19 @@
         <v>176030</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>147642</v>
+        <v>149483</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>211288</v>
+        <v>210545</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.1630688151255027</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.1367713150205177</v>
+        <v>0.1384764896770964</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.1957305434547163</v>
+        <v>0.1950425497026879</v>
       </c>
     </row>
     <row r="58">
@@ -4595,19 +4595,19 @@
         <v>38901</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>23587</v>
+        <v>24204</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>57040</v>
+        <v>60309</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.1639800238058615</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.09942607247115737</v>
+        <v>0.1020293543160161</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.2404447138504799</v>
+        <v>0.2542229779867588</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>61</v>
@@ -4616,19 +4616,19 @@
         <v>55270</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>41541</v>
+        <v>40952</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>72966</v>
+        <v>71771</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.0656209353126921</v>
+        <v>0.06562093531269211</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.0493216697088272</v>
+        <v>0.04862152848071653</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.08663201877648999</v>
+        <v>0.0852134073356883</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>79</v>
@@ -4637,19 +4637,19 @@
         <v>94170</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>74424</v>
+        <v>73147</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>121800</v>
+        <v>119094</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.08723638989877572</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.06894423373862614</v>
+        <v>0.06776157732489431</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.1128319899473935</v>
+        <v>0.1103250399258881</v>
       </c>
     </row>
     <row r="59">
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>9234</v>
+        <v>10975</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.007680611438948582</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.03892352193466059</v>
+        <v>0.04626375499639188</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>11</v>
@@ -4687,19 +4687,19 @@
         <v>10201</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>5071</v>
+        <v>5029</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>21722</v>
+        <v>22343</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.01211137834657623</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.006020431603260486</v>
+        <v>0.005971417081397649</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.02579030612718862</v>
+        <v>0.02652739667812828</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>12</v>
@@ -4708,19 +4708,19 @@
         <v>12023</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>6004</v>
+        <v>5698</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>24850</v>
+        <v>24890</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.01113767024963714</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.00556213188940293</v>
+        <v>0.005278348820070776</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.02302050260710172</v>
+        <v>0.02305734084040783</v>
       </c>
     </row>
     <row r="60">
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>6715</v>
+        <v>6515</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.005445091687893252</v>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.02830709230808299</v>
+        <v>0.02746172833271356</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>2</v>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>9778</v>
+        <v>8990</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.002339791362844325</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.01160985521357573</v>
+        <v>0.01067383626253979</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>3</v>
@@ -4779,19 +4779,19 @@
         <v>3262</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>10375</v>
+        <v>9941</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.003022214097545725</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.0002611929244828088</v>
+        <v>0.0002587689190305336</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.00961122149306054</v>
+        <v>0.009208924027945375</v>
       </c>
     </row>
     <row r="61">
@@ -4821,19 +4821,19 @@
         <v>2227</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>5587</v>
+        <v>5764</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.002644350515177319</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.0008048779406205325</v>
+        <v>0.0007939281119971548</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.006632827143766872</v>
+        <v>0.006843610596346692</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>4</v>
@@ -4842,19 +4842,19 @@
         <v>2227</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>5674</v>
+        <v>5695</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.002063226397963976</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.0006491245815964721</v>
+        <v>0.000634149332333969</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.005256389821085865</v>
+        <v>0.00527567053858013</v>
       </c>
     </row>
     <row r="62">
@@ -4871,19 +4871,19 @@
         <v>3275</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>10831</v>
+        <v>10458</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.01380674149464574</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.002057752257907377</v>
+        <v>0.002191998376598407</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.04565760601376423</v>
+        <v>0.04408279432613228</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>26</v>
@@ -4892,19 +4892,19 @@
         <v>15834</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>10295</v>
+        <v>10366</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>23557</v>
+        <v>23676</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.01879969320303393</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.01222327143361757</v>
+        <v>0.01230752178644903</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.02796911858036474</v>
+        <v>0.02811009118203078</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>29</v>
@@ -4913,19 +4913,19 @@
         <v>19109</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>12496</v>
+        <v>12809</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>28646</v>
+        <v>28808</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.0177024390239179</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.01157603446450188</v>
+        <v>0.01186615412782863</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.02653722095104364</v>
+        <v>0.02668687910991331</v>
       </c>
     </row>
     <row r="63">
@@ -5017,19 +5017,19 @@
         <v>592710</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>548677</v>
+        <v>543255</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>645446</v>
+        <v>639236</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.1724950445023105</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.1596800456752001</v>
+        <v>0.1581021637279984</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.1878426727907188</v>
+        <v>0.1860353820361707</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>1781</v>
@@ -5038,19 +5038,19 @@
         <v>1142450</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>1091716</v>
+        <v>1096593</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>1191015</v>
+        <v>1191544</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.3149829783775576</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.3009951509734715</v>
+        <v>0.3023397495033964</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.3283728380967617</v>
+        <v>0.3285185301230615</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>2359</v>
@@ -5059,19 +5059,19 @@
         <v>1735160</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>1669007</v>
+        <v>1667303</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>1813600</v>
+        <v>1800114</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.2456647690109592</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.2362986967113443</v>
+        <v>0.2360575009747355</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.256770328816972</v>
+        <v>0.2548609580528894</v>
       </c>
     </row>
     <row r="65">
@@ -5088,19 +5088,19 @@
         <v>414774</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>375797</v>
+        <v>374072</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>455014</v>
+        <v>454101</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.1207106062003154</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.1093672360612904</v>
+        <v>0.1088653900303222</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.1324215573132873</v>
+        <v>0.1321557964449406</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>840</v>
@@ -5109,19 +5109,19 @@
         <v>544670</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>508774</v>
+        <v>511205</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>582725</v>
+        <v>581767</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.1501701535383113</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.1402733667467992</v>
+        <v>0.1409433558093943</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.1606620435439047</v>
+        <v>0.1603979199893662</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>1285</v>
@@ -5130,19 +5130,19 @@
         <v>959444</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>904309</v>
+        <v>903965</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>1012254</v>
+        <v>1015857</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.1358385325042922</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.1280325426876987</v>
+        <v>0.1279837473301201</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.1433153968650177</v>
+        <v>0.1438254574626835</v>
       </c>
     </row>
     <row r="66">
@@ -5159,19 +5159,19 @@
         <v>463417</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>419710</v>
+        <v>421450</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>512824</v>
+        <v>513911</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.1348670462119413</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.1221471339938948</v>
+        <v>0.1226536222821768</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.1492458814040348</v>
+        <v>0.1495621127446628</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>918</v>
@@ -5180,19 +5180,19 @@
         <v>666663</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>627966</v>
+        <v>628599</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>709338</v>
+        <v>709445</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.183804433557314</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.1731354209450151</v>
+        <v>0.1733101225436561</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1955705200926506</v>
+        <v>0.1955998659967951</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>1342</v>
@@ -5201,19 +5201,19 @@
         <v>1130079</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>1070034</v>
+        <v>1075575</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>1185754</v>
+        <v>1197045</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.1599971400581262</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.1514958449480044</v>
+        <v>0.1522803406318417</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.1678795861214232</v>
+        <v>0.1694781375864069</v>
       </c>
     </row>
     <row r="67">
@@ -5230,19 +5230,19 @@
         <v>600815</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>549390</v>
+        <v>550698</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>651773</v>
+        <v>653701</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.1748537606021631</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.1598876962498625</v>
+        <v>0.1602684096425041</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.1896837893321527</v>
+        <v>0.1902449735837252</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>851</v>
@@ -5251,19 +5251,19 @@
         <v>661045</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>618571</v>
+        <v>620290</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>702401</v>
+        <v>706937</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.1822556312609764</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.1705452565788073</v>
+        <v>0.1710191832764142</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.1936578845767366</v>
+        <v>0.1949085618907011</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>1351</v>
@@ -5272,19 +5272,19 @@
         <v>1261860</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>1195202</v>
+        <v>1201227</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>1332281</v>
+        <v>1340190</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.178654733935303</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.1692172715247744</v>
+        <v>0.1700702057113391</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.1886249154423705</v>
+        <v>0.1897447233839138</v>
       </c>
     </row>
     <row r="68">
@@ -5301,19 +5301,19 @@
         <v>647310</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>596511</v>
+        <v>597104</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>706749</v>
+        <v>703806</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.1883848892789742</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.1736011980522583</v>
+        <v>0.1737736023186001</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.2056834082085833</v>
+        <v>0.2048269996504426</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>553</v>
@@ -5322,19 +5322,19 @@
         <v>418022</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>383877</v>
+        <v>381199</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>456227</v>
+        <v>450964</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.1152522840893519</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.1058379890682868</v>
+        <v>0.105099762234983</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.1257857027423077</v>
+        <v>0.1243346047833953</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>1105</v>
@@ -5343,19 +5343,19 @@
         <v>1065332</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>1001248</v>
+        <v>1003349</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>1127845</v>
+        <v>1130994</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.1508301825133508</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.1417570910389116</v>
+        <v>0.142054668839158</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.1596807692547829</v>
+        <v>0.1601266894127309</v>
       </c>
     </row>
     <row r="69">
@@ -5372,19 +5372,19 @@
         <v>117523</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>97751</v>
+        <v>96815</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>141963</v>
+        <v>144217</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>0.03420232177300344</v>
+        <v>0.03420232177300345</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.0284481981940223</v>
+        <v>0.02817591768429728</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.0413149998740703</v>
+        <v>0.04197109201733069</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>82</v>
@@ -5393,19 +5393,19 @@
         <v>60384</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>48585</v>
+        <v>47309</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>78017</v>
+        <v>75237</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.01664832447223755</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.01339528897760397</v>
+        <v>0.01304348692855204</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.02150993927762625</v>
+        <v>0.02074347513952947</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>196</v>
@@ -5414,19 +5414,19 @@
         <v>177906</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>153974</v>
+        <v>152870</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>204864</v>
+        <v>207764</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.02518807676579352</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.02179965428346085</v>
+        <v>0.02164342350248881</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.02900472612164538</v>
+        <v>0.0294153517542891</v>
       </c>
     </row>
     <row r="70">
@@ -5443,19 +5443,19 @@
         <v>37420</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>26163</v>
+        <v>26522</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>52775</v>
+        <v>53409</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.01089025023206551</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.0076140570784317</v>
+        <v>0.007718758929239067</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.01535884524019629</v>
+        <v>0.01554337919622185</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>30</v>
@@ -5464,19 +5464,19 @@
         <v>18888</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>13496</v>
+        <v>13270</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>27666</v>
+        <v>28024</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.005207488870054186</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.003720960296721</v>
+        <v>0.003658695859885202</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.007627622407206115</v>
+        <v>0.00772643058840478</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>68</v>
@@ -5485,19 +5485,19 @@
         <v>56308</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>43399</v>
+        <v>43550</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>73681</v>
+        <v>72104</v>
       </c>
       <c r="U70" s="6" t="n">
-        <v>0.007972065709361898</v>
+        <v>0.007972065709361899</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.006144389813105553</v>
+        <v>0.00616582468136583</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.01043184131009859</v>
+        <v>0.01020851941666578</v>
       </c>
     </row>
     <row r="71">
@@ -5514,19 +5514,19 @@
         <v>79397</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>63886</v>
+        <v>64825</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>96098</v>
+        <v>96439</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.02310673417787016</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.01859257141213978</v>
+        <v>0.01886573235808061</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.0279672547142125</v>
+        <v>0.02806643024492064</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>32</v>
@@ -5535,19 +5535,19 @@
         <v>20479</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>14187</v>
+        <v>14493</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>28660</v>
+        <v>29686</v>
       </c>
       <c r="N71" s="6" t="n">
-        <v>0.005646191426564021</v>
+        <v>0.005646191426564019</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.003911458633730817</v>
+        <v>0.003995724520235885</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.007901901774416553</v>
+        <v>0.00818458635169601</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>126</v>
@@ -5556,19 +5556,19 @@
         <v>99876</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>82527</v>
+        <v>82783</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>119612</v>
+        <v>118712</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.01414047950536491</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.01168425983930917</v>
+        <v>0.01172039369189027</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.01693466551444275</v>
+        <v>0.01680731049970415</v>
       </c>
     </row>
     <row r="72">
@@ -5585,19 +5585,19 @@
         <v>482736</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>445629</v>
+        <v>442213</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>523536</v>
+        <v>526627</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.1404893470213565</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.1296902184288594</v>
+        <v>0.1286962252143766</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.1523634963714059</v>
+        <v>0.1532630227582119</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>146</v>
@@ -5606,19 +5606,19 @@
         <v>94420</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>80092</v>
+        <v>80444</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>111753</v>
+        <v>113203</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.02603251440763312</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.02208215878483433</v>
+        <v>0.02217897975141339</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.03081119453238065</v>
+        <v>0.03121113198746019</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>695</v>
@@ -5627,19 +5627,19 @@
         <v>577156</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>535527</v>
+        <v>532562</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>624919</v>
+        <v>621568</v>
       </c>
       <c r="U72" s="6" t="n">
-        <v>0.08171401999744823</v>
+        <v>0.08171401999744828</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.07582020018332032</v>
+        <v>0.07540035466203483</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.08847636689744892</v>
+        <v>0.08800193170252406</v>
       </c>
     </row>
     <row r="73">
